--- a/SystemTestPlan_v3.xlsx
+++ b/SystemTestPlan_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA90512-8328-46E1-BB96-FD6C2E0F486A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919CC9B7-5997-475D-A265-D80EE4DE4E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -624,12 +624,6 @@
 3) Submit</t>
   </si>
   <si>
-    <t xml:space="preserve">account no - payers account no inserted in above test case
-From date - dd/mm/yy
-to date - lower than from date
-</t>
-  </si>
-  <si>
     <t>1) pop - up "From date field should be lower than to date field"</t>
   </si>
   <si>
@@ -683,15 +677,6 @@
   </si>
   <si>
     <t>Verfiy Customer account created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Click on Add Customer Page
-2)Enter Suitable Password
-3)Customer should be successfully created
-4)Note down Customer id and password
-5)Logout from and page should be redirected to login page
-6)Enter noted Customer id and password in step 3
-</t>
   </si>
   <si>
     <t xml:space="preserve">Customer should be able to login </t>
@@ -1182,6 +1167,19 @@
   </si>
   <si>
     <t>WS17</t>
+  </si>
+  <si>
+    <t>1)Click on Add Customer Page
+2)Enter Suitable Password
+3)Customer should be successfully created
+4)Note down Customer id and password
+5)Logout from and page should be redirected to login page
+6)Enter noted Customer id and password in step 3</t>
+  </si>
+  <si>
+    <t>account no - payers account no inserted in above test case
+From date - dd/mm/yy
+to date - lower than from date</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1369,9 +1367,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,26 +1381,77 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1885,1085 +1931,1086 @@
   </sheetPr>
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="19" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="87.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="15.140625" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="G18" s="31"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="G22" s="31"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="G26" s="31"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="G28" s="31"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="28"/>
+    </row>
+    <row r="32" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="G32" s="31"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15" t="s">
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="B34" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="E34" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="15" t="s">
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="B35" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="C35" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="30"/>
+      <c r="F35" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15" t="s">
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="B36" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="D36" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-    </row>
-    <row r="37" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-    </row>
-    <row r="38" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F38" s="3"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="23"/>
-    </row>
-    <row r="45" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H46" s="23"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F38" s="37"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H43" s="38"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H44" s="38"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H45" s="38"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H47" s="23"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H48" s="23"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H49" s="23"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H50" s="23"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H51" s="23"/>
+      <c r="H51" s="38"/>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H52" s="23"/>
+      <c r="H52" s="38"/>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H53" s="23"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H54" s="23"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H55" s="23"/>
+      <c r="H55" s="38"/>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H56" s="23"/>
+      <c r="H56" s="38"/>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H57" s="23"/>
+      <c r="H57" s="38"/>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H58" s="23"/>
+      <c r="H58" s="38"/>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H59" s="23"/>
+      <c r="H59" s="38"/>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H60" s="23"/>
+      <c r="H60" s="38"/>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H61" s="23"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H62" s="23"/>
+      <c r="H62" s="38"/>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H63" s="23"/>
+      <c r="H63" s="38"/>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H64" s="23"/>
+      <c r="H64" s="38"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="23"/>
+      <c r="H65" s="38"/>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H66" s="23"/>
+      <c r="H66" s="38"/>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H67" s="23"/>
+      <c r="H67" s="38"/>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H68" s="23"/>
+      <c r="H68" s="38"/>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H69" s="23"/>
+      <c r="H69" s="38"/>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H70" s="23"/>
+      <c r="H70" s="38"/>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H71" s="23"/>
+      <c r="H71" s="38"/>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H72" s="23"/>
+      <c r="H72" s="38"/>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H73" s="23"/>
+      <c r="H73" s="38"/>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H74" s="23"/>
+      <c r="H74" s="38"/>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H75" s="23"/>
+      <c r="H75" s="38"/>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H76" s="23"/>
+      <c r="H76" s="38"/>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H77" s="23"/>
+      <c r="H77" s="38"/>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H78" s="23"/>
+      <c r="H78" s="38"/>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H79" s="23"/>
+      <c r="H79" s="38"/>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H80" s="23"/>
+      <c r="H80" s="38"/>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H81" s="23"/>
+      <c r="H81" s="38"/>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H82" s="23"/>
+      <c r="H82" s="38"/>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H83" s="23"/>
+      <c r="H83" s="38"/>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H84" s="23"/>
+      <c r="H84" s="38"/>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H85" s="23"/>
+      <c r="H85" s="38"/>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H86" s="23"/>
+      <c r="H86" s="38"/>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H87" s="23"/>
+      <c r="H87" s="38"/>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H88" s="23"/>
+      <c r="H88" s="38"/>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H89" s="23"/>
+      <c r="H89" s="38"/>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H90" s="23"/>
+      <c r="H90" s="38"/>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H91" s="23"/>
+      <c r="H91" s="38"/>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H92" s="23"/>
+      <c r="H92" s="38"/>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H93" s="23"/>
+      <c r="H93" s="38"/>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H94" s="23"/>
+      <c r="H94" s="38"/>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H95" s="23"/>
+      <c r="H95" s="38"/>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H96" s="23"/>
+      <c r="H96" s="38"/>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H97" s="23"/>
+      <c r="H97" s="38"/>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H98" s="23"/>
+      <c r="H98" s="38"/>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H99" s="23"/>
+      <c r="H99" s="38"/>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H100" s="23"/>
+      <c r="H100" s="38"/>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H101" s="23"/>
+      <c r="H101" s="38"/>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H102" s="23"/>
+      <c r="H102" s="38"/>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H103" s="23"/>
+      <c r="H103" s="38"/>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H104" s="23"/>
+      <c r="H104" s="38"/>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H105" s="23"/>
+      <c r="H105" s="38"/>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H106" s="23"/>
+      <c r="H106" s="38"/>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H107" s="23"/>
+      <c r="H107" s="38"/>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H108" s="23"/>
+      <c r="H108" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,433 +3038,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="D8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="B9" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E15" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="F16" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="D19" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3442,203 +3489,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="D4" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="D6" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="14">
+        <v>123</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="14">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E6" s="15">
-        <v>123</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="15">
-        <v>130</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>3</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3652,428 +3699,436 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="20" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="20" width="15.140625" style="21" customWidth="1"/>
+    <col min="21" max="16384" width="12.5703125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="F2" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="D12" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="E12" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D14" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="E14" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="D16" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="D17" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="E17" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="F17" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="C18" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="D18" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="F18" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/SystemTestPlan_v3.xlsx
+++ b/SystemTestPlan_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919CC9B7-5997-475D-A265-D80EE4DE4E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BA98A4-2DE6-4147-8B00-9436048C5D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -758,9 +758,6 @@
     <t>SC8</t>
   </si>
   <si>
-    <t xml:space="preserve">Fund Transfer &amp; customized statement, Balance enquiry </t>
-  </si>
-  <si>
     <t>Verify Fund Transfer can be done</t>
   </si>
   <si>
@@ -910,12 +907,6 @@
   </si>
   <si>
     <t>Verify system behavior when wrong account number is entered in the Customized statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account no -abc
-From date - dd/mm/yy
-to date - current date
-</t>
   </si>
   <si>
     <t>Display alert messsage " Account does not exist! "</t>
@@ -1180,6 +1171,15 @@
     <t>account no - payers account no inserted in above test case
 From date - dd/mm/yy
 to date - lower than from date</t>
+  </si>
+  <si>
+    <t>account no -abc
+From date - dd/mm/yy
+to date - current date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fund Transfer &amp; customized statement, 
+Balance enquiry </t>
   </si>
 </sst>
 </file>
@@ -1370,16 +1370,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1452,6 +1443,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1938,1079 +1938,1079 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="87.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="19" width="15.140625" style="29" customWidth="1"/>
-    <col min="20" max="16384" width="12.5703125" style="29"/>
+    <col min="1" max="1" width="5.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="87.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="15.140625" style="26" customWidth="1"/>
+    <col min="20" max="16384" width="12.5703125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30" t="s">
+      <c r="E24" s="27"/>
+      <c r="F24" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30" t="s">
+      <c r="E26" s="27"/>
+      <c r="F26" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="F32" s="30" t="s">
+      <c r="E32" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="F32" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30" t="s">
+      <c r="E33" s="27"/>
+      <c r="F33" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30" t="s">
+      <c r="E35" s="27"/>
+      <c r="F35" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
     </row>
     <row r="36" spans="1:19" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30" t="s">
+      <c r="D36" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F38" s="37"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="38"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H39" s="38"/>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H40" s="38"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H41" s="38"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H42" s="38"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H43" s="38"/>
+      <c r="H43" s="35"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H44" s="38"/>
+      <c r="H44" s="35"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H45" s="38"/>
+      <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H46" s="38"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H47" s="38"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H48" s="38"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H49" s="38"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H50" s="38"/>
+      <c r="H50" s="35"/>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H51" s="38"/>
+      <c r="H51" s="35"/>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H52" s="38"/>
+      <c r="H52" s="35"/>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H53" s="38"/>
+      <c r="H53" s="35"/>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H54" s="38"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H55" s="38"/>
+      <c r="H55" s="35"/>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H56" s="38"/>
+      <c r="H56" s="35"/>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H57" s="38"/>
+      <c r="H57" s="35"/>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H58" s="38"/>
+      <c r="H58" s="35"/>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H59" s="38"/>
+      <c r="H59" s="35"/>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H60" s="38"/>
+      <c r="H60" s="35"/>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H61" s="38"/>
+      <c r="H61" s="35"/>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H62" s="38"/>
+      <c r="H62" s="35"/>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H63" s="38"/>
+      <c r="H63" s="35"/>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H64" s="38"/>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="38"/>
+      <c r="H65" s="35"/>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H66" s="38"/>
+      <c r="H66" s="35"/>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H67" s="38"/>
+      <c r="H67" s="35"/>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H68" s="38"/>
+      <c r="H68" s="35"/>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H69" s="38"/>
+      <c r="H69" s="35"/>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H70" s="38"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H71" s="38"/>
+      <c r="H71" s="35"/>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H72" s="38"/>
+      <c r="H72" s="35"/>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H73" s="38"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H74" s="38"/>
+      <c r="H74" s="35"/>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H75" s="38"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H76" s="38"/>
+      <c r="H76" s="35"/>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H77" s="38"/>
+      <c r="H77" s="35"/>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H78" s="38"/>
+      <c r="H78" s="35"/>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H79" s="38"/>
+      <c r="H79" s="35"/>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H80" s="38"/>
+      <c r="H80" s="35"/>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H81" s="38"/>
+      <c r="H81" s="35"/>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H82" s="38"/>
+      <c r="H82" s="35"/>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H83" s="38"/>
+      <c r="H83" s="35"/>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H84" s="38"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H85" s="38"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H86" s="38"/>
+      <c r="H86" s="35"/>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H87" s="38"/>
+      <c r="H87" s="35"/>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H88" s="38"/>
+      <c r="H88" s="35"/>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H89" s="38"/>
+      <c r="H89" s="35"/>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H90" s="38"/>
+      <c r="H90" s="35"/>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H91" s="38"/>
+      <c r="H91" s="35"/>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H92" s="38"/>
+      <c r="H92" s="35"/>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H93" s="38"/>
+      <c r="H93" s="35"/>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H94" s="38"/>
+      <c r="H94" s="35"/>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H95" s="38"/>
+      <c r="H95" s="35"/>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H96" s="38"/>
+      <c r="H96" s="35"/>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H97" s="38"/>
+      <c r="H97" s="35"/>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H98" s="38"/>
+      <c r="H98" s="35"/>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H99" s="38"/>
+      <c r="H99" s="35"/>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H100" s="38"/>
+      <c r="H100" s="35"/>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H101" s="38"/>
+      <c r="H101" s="35"/>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H102" s="38"/>
+      <c r="H102" s="35"/>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H103" s="38"/>
+      <c r="H103" s="35"/>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H104" s="38"/>
+      <c r="H104" s="35"/>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H105" s="38"/>
+      <c r="H105" s="35"/>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H106" s="38"/>
+      <c r="H106" s="35"/>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H107" s="38"/>
+      <c r="H107" s="35"/>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H108" s="38"/>
+      <c r="H108" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3024,447 +3024,452 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
-    <col min="8" max="19" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="77.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="54" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="15.140625" style="18" customWidth="1"/>
+    <col min="20" max="16384" width="12.5703125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="D15" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="F15" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="E18" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="D19" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14" t="s">
+      <c r="F19" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3516,176 +3521,176 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="D4" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="D6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="13">
+        <v>123</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="13">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="14">
-        <v>123</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="14">
-        <v>130</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>3</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3699,436 +3704,436 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="104.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="20" width="15.140625" style="21" customWidth="1"/>
-    <col min="21" max="16384" width="12.5703125" style="21"/>
+    <col min="1" max="1" width="6.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="20" width="15.140625" style="18" customWidth="1"/>
+    <col min="21" max="16384" width="12.5703125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="F2" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" s="39" t="s">
+      <c r="D12" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23" t="s">
+      <c r="E12" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D14" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="E14" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="D16" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8" s="39" t="s">
+      <c r="D17" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="E17" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="F17" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="40" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="C18" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="D18" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="F18" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
